--- a/data/trans_bre/MCS12_SP_R3-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>14,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>9,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,79%</t>
+          <t>46,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>71,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>49,97%</t>
+          <t>49,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>23,24%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 11,09</t>
+          <t>2,29; 10,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 22,37</t>
+          <t>9,41; 19,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 20,56</t>
+          <t>4,66; 13,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 9,43</t>
+          <t>0,65; 8,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,47; 280,55</t>
+          <t>14,06; 82,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 137,63</t>
+          <t>41,37; 108,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 159,9</t>
+          <t>21,49; 82,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 59,58</t>
+          <t>2,78; 49,26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>10,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,17</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>13,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>52,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>76,35%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,64%</t>
+          <t>52,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>94,59%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 11,38</t>
+          <t>6,13; 13,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,9; 20,33</t>
+          <t>4,79; 13,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 13,93</t>
+          <t>4,83; 11,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 9,56</t>
+          <t>8,96; 22,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,07; 86,02</t>
+          <t>26,96; 77,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,99; 118,16</t>
+          <t>19,21; 62,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,57; 89,1</t>
+          <t>26,73; 81,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 52,97</t>
+          <t>48,45; 300,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>10,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>20,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>52,25%</t>
+          <t>49,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>42,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,24%</t>
+          <t>93,02%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 13,97</t>
+          <t>3,77; 12,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 13,01</t>
+          <t>5,6; 14,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 11,83</t>
+          <t>3,6; 12,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 14,68</t>
+          <t>1,98; 46,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,96; 77,15</t>
+          <t>19,44; 86,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,21; 62,89</t>
+          <t>24,57; 82,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,73; 81,02</t>
+          <t>16,43; 74,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,44; 102,29</t>
+          <t>9,03; 249,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,61</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,98</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,16%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>36,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,87%</t>
+          <t>41,5%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 12,96</t>
+          <t>2,13; 10,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 14,82</t>
+          <t>5,42; 13,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 12,15</t>
+          <t>2,5; 10,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 34,77</t>
+          <t>2,37; 12,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,44; 86,82</t>
+          <t>9,27; 51,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,57; 82,02</t>
+          <t>20,38; 57,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,43; 74,09</t>
+          <t>10,49; 49,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,45; 183,64</t>
+          <t>12,53; 67,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,06</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>42,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,56%</t>
+          <t>46,64%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>41,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>68,36%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 10,05</t>
+          <t>5,82; 9,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 13,11</t>
+          <t>8,43; 12,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 10,11</t>
+          <t>5,87; 9,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,68; 13,32</t>
+          <t>7,07; 27,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,27; 51,07</t>
+          <t>29,39; 56,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,38; 57,99</t>
+          <t>35,6; 59,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,49; 49,36</t>
+          <t>29,06; 54,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,92; 70,88</t>
+          <t>35,01; 161,89</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,92</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,39</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7,91</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>9,98</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>42,48%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>46,64%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>41,95%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>50,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>5,82; 9,85</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,43; 12,63</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,87; 9,91</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 17,94</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>29,39; 56,26</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>35,6; 59,2</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>29,06; 54,99</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>33,72; 89,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/MCS12_SP_R3-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 10,23</t>
+          <t>2,92; 10,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,41; 19,36</t>
+          <t>9,24; 19,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 13,3</t>
+          <t>5,16; 13,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 8,8</t>
+          <t>0,4; 8,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 82,29</t>
+          <t>19,06; 90,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,37; 108,74</t>
+          <t>40,81; 107,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,49; 82,39</t>
+          <t>24,56; 84,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 49,26</t>
+          <t>1,73; 47,79</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 13,97</t>
+          <t>6,27; 14,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 13,01</t>
+          <t>4,82; 12,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 11,83</t>
+          <t>4,77; 11,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 22,33</t>
+          <t>8,56; 21,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,96; 77,15</t>
+          <t>28,79; 80,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,21; 62,89</t>
+          <t>19,36; 60,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,73; 81,02</t>
+          <t>25,88; 80,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,45; 300,82</t>
+          <t>44,48; 278,73</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 12,96</t>
+          <t>4,31; 13,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 14,82</t>
+          <t>6,16; 15,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 12,15</t>
+          <t>3,68; 12,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 46,03</t>
+          <t>2,35; 49,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,44; 86,82</t>
+          <t>21,17; 85,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,57; 82,02</t>
+          <t>27,08; 85,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,43; 74,09</t>
+          <t>17,0; 73,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 249,98</t>
+          <t>9,75; 269,06</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 10,05</t>
+          <t>1,96; 9,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 13,11</t>
+          <t>4,82; 13,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 10,11</t>
+          <t>2,27; 10,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 12,16</t>
+          <t>2,14; 12,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 51,07</t>
+          <t>8,19; 49,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,38; 57,99</t>
+          <t>17,31; 59,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,49; 49,36</t>
+          <t>8,74; 50,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 67,39</t>
+          <t>10,8; 69,74</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,85</t>
+          <t>5,65; 9,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,63</t>
+          <t>8,28; 12,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,91</t>
+          <t>5,97; 9,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 27,02</t>
+          <t>7,09; 23,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,39; 56,26</t>
+          <t>28,56; 56,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,6; 59,2</t>
+          <t>35,85; 60,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,06; 54,99</t>
+          <t>30,23; 56,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,01; 161,89</t>
+          <t>35,82; 140,26</t>
         </is>
       </c>
     </row>
